--- a/题单.xlsx
+++ b/题单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748CD217-738B-4D67-BE84-57329321C20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796EB180-B3A4-4E1A-BF18-AA1BD6F8362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="187">
   <si>
     <t>公开</t>
   </si>
@@ -585,15 +585,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>没有用回溯，故求得为局部优</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1008询问，解决！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>作弊了一个测试点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没用回溯，故为局部最优/用了回溯，但是超时/动态规划解决</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2776,7 +2776,7 @@
         <v>174</v>
       </c>
       <c r="J67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
@@ -2808,7 +2808,7 @@
         <v>174</v>
       </c>
       <c r="J68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
@@ -2972,6 +2972,9 @@
       <c r="H74">
         <v>28.71</v>
       </c>
+      <c r="I74" s="2">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75">
@@ -2998,6 +3001,9 @@
       <c r="H75">
         <v>14.25</v>
       </c>
+      <c r="I75" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76">
@@ -3780,11 +3786,11 @@
       <c r="H104">
         <v>29.5</v>
       </c>
-      <c r="I104" s="2">
-        <v>0.33</v>
+      <c r="I104" t="s">
+        <v>174</v>
       </c>
       <c r="J104" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">

--- a/题单.xlsx
+++ b/题单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796EB180-B3A4-4E1A-BF18-AA1BD6F8362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A5B7D8-AB42-426B-80E0-881A512CBEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="188">
   <si>
     <t>公开</t>
   </si>
@@ -594,6 +594,10 @@
   </si>
   <si>
     <t>没用回溯，故为局部最优/用了回溯，但是超时/动态规划解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问完没有答案</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -938,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="108" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1374,8 +1378,8 @@
       <c r="H16">
         <v>31.31</v>
       </c>
-      <c r="I16" s="2">
-        <v>0.9</v>
+      <c r="I16" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -2715,7 +2719,7 @@
         <v>0.8</v>
       </c>
       <c r="J65" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
@@ -3087,6 +3091,12 @@
       </c>
       <c r="H78">
         <v>14.13</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">

--- a/题单.xlsx
+++ b/题单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A5B7D8-AB42-426B-80E0-881A512CBEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B62215-08A6-474E-9450-948D993130F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="189">
   <si>
     <t>公开</t>
   </si>
@@ -598,6 +598,10 @@
   </si>
   <si>
     <t>询问完没有答案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.22核心技术用了ai，还需要好好理解10进制转k进制</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -942,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="108" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3550,6 +3554,12 @@
       </c>
       <c r="H95">
         <v>32.22</v>
+      </c>
+      <c r="I95" t="s">
+        <v>174</v>
+      </c>
+      <c r="J95" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">

--- a/题单.xlsx
+++ b/题单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B62215-08A6-474E-9450-948D993130F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24B06D0-90AA-4B45-9B36-75728E07E30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="189">
   <si>
     <t>公开</t>
   </si>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J96" sqref="J96"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="108" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3179,6 +3179,9 @@
       </c>
       <c r="H81">
         <v>34.700000000000003</v>
+      </c>
+      <c r="I81" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">

--- a/题单.xlsx
+++ b/题单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24B06D0-90AA-4B45-9B36-75728E07E30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43D315E-3DC8-4DA8-BA11-236A2110CA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="190">
   <si>
     <t>公开</t>
   </si>
@@ -602,6 +602,10 @@
   </si>
   <si>
     <t>10.22核心技术用了ai，还需要好好理解10进制转k进制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作弊了两个点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -946,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="108" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="108" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1602,6 +1606,9 @@
       <c r="H24">
         <v>31.61</v>
       </c>
+      <c r="I24" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
@@ -2059,6 +2066,9 @@
       <c r="H41">
         <v>57.53</v>
       </c>
+      <c r="I41" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42">
@@ -2085,6 +2095,9 @@
       <c r="H42">
         <v>40.200000000000003</v>
       </c>
+      <c r="I42" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43">
@@ -3096,11 +3109,11 @@
       <c r="H78">
         <v>14.13</v>
       </c>
-      <c r="I78" s="2">
-        <v>0.1</v>
+      <c r="I78" t="s">
+        <v>174</v>
       </c>
       <c r="J78" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
@@ -3208,6 +3221,9 @@
       </c>
       <c r="H82">
         <v>42.37</v>
+      </c>
+      <c r="I82" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">

--- a/题单.xlsx
+++ b/题单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43D315E-3DC8-4DA8-BA11-236A2110CA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79AD8AF-024B-4EC5-ACD9-74761ED6025B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="190">
   <si>
     <t>公开</t>
   </si>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="108" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="108" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1732,6 +1732,9 @@
       </c>
       <c r="H29">
         <v>18.66</v>
+      </c>
+      <c r="I29" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">

--- a/题单.xlsx
+++ b/题单.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79AD8AF-024B-4EC5-ACD9-74761ED6025B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BAA624-8220-4B88-8C51-3A8241A6563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="190">
   <si>
     <t>公开</t>
   </si>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="108" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1655,6 +1655,9 @@
       <c r="H26">
         <v>30.68</v>
       </c>
+      <c r="I26" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
@@ -3143,6 +3146,9 @@
       </c>
       <c r="H79">
         <v>36.590000000000003</v>
+      </c>
+      <c r="I79" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">

--- a/题单.xlsx
+++ b/题单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BAA624-8220-4B88-8C51-3A8241A6563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF21E79E-FB16-4C4C-BE13-3F21AD91EDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="190">
   <si>
     <t>公开</t>
   </si>
@@ -597,15 +597,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>询问完没有答案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.22核心技术用了ai，还需要好好理解10进制转k进制</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>作弊了两个点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问完没有答案/1107终于解决了，向上取整，轮数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="108" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="108" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2738,11 +2738,11 @@
       <c r="H65">
         <v>11.19</v>
       </c>
-      <c r="I65" s="2">
-        <v>0.8</v>
+      <c r="I65" t="s">
+        <v>173</v>
       </c>
       <c r="J65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
@@ -3119,7 +3119,7 @@
         <v>174</v>
       </c>
       <c r="J78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
@@ -3587,7 +3587,7 @@
         <v>174</v>
       </c>
       <c r="J95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">

--- a/题单.xlsx
+++ b/题单.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\04ComputerScience\C_Program_learning\yoj\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502DE74E-C837-4B5C-BDAA-E54908069E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
-    <sheet r:id="rId2" sheetId="2" name="Sheet2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="189">
   <si>
     <t>题号</t>
   </si>
@@ -587,15 +593,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0%"/>
+    <numFmt numFmtId="176" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -612,6 +618,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -622,7 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd0cece"/>
+        <fgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
   </fills>
@@ -643,16 +663,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,65 +680,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -729,10 +742,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -770,71 +783,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -862,7 +875,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -885,11 +898,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -898,13 +911,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -914,7 +927,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -923,7 +936,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -932,7 +945,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -940,10 +953,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1008,29 +1021,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,3272 +1069,3142 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
-      <c r="A2" s="6">
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>1694</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>3502</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>48.37</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="6">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>1392</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>3727</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>37.35</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="6">
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>1426</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>2759</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>51.69</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="6">
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
         <v>256</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>1073</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>1569</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>68.39</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6">
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
         <v>215</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9">
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
         <v>901</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>1266</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>71.17</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="6">
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
         <v>223</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9">
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
         <v>672</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>1629</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>41.25</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="6">
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
         <v>224</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9">
+      <c r="E8" s="7"/>
+      <c r="F8" s="8">
         <v>737</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>2729</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>27.01</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="6">
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
         <v>225</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9">
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
         <v>715</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>3636</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>19.66</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="6">
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
         <v>226</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9">
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
         <v>301</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>2004</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>15.02</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="6">
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
         <v>230</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9">
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
         <v>677</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>1219</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>55.54</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="6">
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
         <v>484</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>488</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>1777</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>27.46</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="6">
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
         <v>593</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>562</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>1283</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>43.8</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="6">
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
         <v>139</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
         <v>2</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>847</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>2593</v>
       </c>
-      <c r="H14" s="7">
-        <v>32.66</v>
+      <c r="H14" s="6">
+        <v>32.659999999999997</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="6">
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
         <v>155</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>657</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>1199</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>54.8</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
-      <c r="A16" s="6">
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
         <v>170</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5">
         <v>2</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>480</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>1533</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>31.31</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="6">
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
         <v>171</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>819</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>3937</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>20.8</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>0.9</v>
       </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
-      <c r="A18" s="6">
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
         <v>172</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>838</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>1191</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>70.36</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="6">
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
         <v>176</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5">
         <v>2</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>230</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>345</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>66.67</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="6">
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
         <v>237</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5">
         <v>2</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>68</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>232</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>29.31</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="6">
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
         <v>255</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5">
         <v>2</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>401</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>659</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>60.85</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="6">
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
         <v>257</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="5">
         <v>2</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>984</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>2245</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>43.83</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="6">
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
         <v>258</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5">
         <v>2</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>339</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>1009</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>33.6</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
-      <c r="A24" s="6">
+    </row>
+    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="5">
         <v>288</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="5">
         <v>2</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>790</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>2499</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>31.61</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
-      <c r="A25" s="6">
+    </row>
+    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="5">
         <v>289</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5">
         <v>2</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>526</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>1662</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <v>31.65</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
-      <c r="A26" s="6">
+    </row>
+    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
         <v>294</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5">
         <v>2</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>413</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>1346</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>30.68</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
-      <c r="A27" s="6">
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="5">
         <v>110</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>2</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>271</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>547</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>49.54</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
-      <c r="A28" s="6">
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="5">
         <v>231</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>2</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9">
+      <c r="E28" s="7"/>
+      <c r="F28" s="8">
         <v>426</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>1690</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>25.21</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="6">
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="5">
         <v>89</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="5">
         <v>3</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>983</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>5267</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>18.66</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="6">
+    </row>
+    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
         <v>140</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="5">
         <v>3</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>547</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>1547</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>35.36</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="6">
+    </row>
+    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="5">
         <v>141</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="5">
         <v>3</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>840</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>2355</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>35.67</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="6">
+    </row>
+    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
         <v>147</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5">
         <v>3</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>1274</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>3080</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>41.36</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
-      <c r="A33" s="6">
+    </row>
+    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="5">
         <v>148</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="6">
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5">
         <v>3</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>880</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>2665</v>
       </c>
-      <c r="H33" s="7">
-        <v>33.02</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
-      <c r="A34" s="6">
+      <c r="H33" s="6">
+        <v>33.020000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="5">
         <v>149</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="5">
         <v>3</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>793</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>1522</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <v>52.1</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
-      <c r="A35" s="6">
+    </row>
+    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="5">
         <v>160</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="5">
         <v>3</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>660</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>2118</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <v>31.16</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
-      <c r="A36" s="6">
+    </row>
+    <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="5">
         <v>161</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5">
         <v>3</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>700</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>1165</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <v>60.09</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
-      <c r="A37" s="6">
+    </row>
+    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="5">
         <v>162</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="5">
         <v>3</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>870</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>2991</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>29.09</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
-      <c r="A38" s="6">
+    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="5">
         <v>173</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="6">
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="5">
         <v>3</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>635</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>1360</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <v>46.69</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
-      <c r="A39" s="6">
+    </row>
+    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="5">
         <v>175</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="6">
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="5">
         <v>3</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>295</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>474</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <v>62.24</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
-      <c r="A40" s="6">
+    </row>
+    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="5">
         <v>178</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="6">
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="5">
         <v>3</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>1303</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>4526</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <v>28.79</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
-      <c r="A41" s="6">
+    </row>
+    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="5">
         <v>179</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5">
         <v>3</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>615</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>1069</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <v>57.53</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
-      <c r="A42" s="6">
+    </row>
+    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="5">
         <v>181</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="5">
         <v>3</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>933</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>2321</v>
       </c>
-      <c r="H42" s="7">
-        <v>40.2</v>
+      <c r="H42" s="6">
+        <v>40.200000000000003</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J42" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
-      <c r="A43" s="6">
+    </row>
+    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="5">
         <v>182</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="6">
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="5">
         <v>3</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>712</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>1630</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="6">
         <v>43.68</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
-      <c r="A44" s="6">
+    </row>
+    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="5">
         <v>183</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="6">
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="5">
         <v>3</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>445</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>1268</v>
       </c>
-      <c r="H44" s="7">
-        <v>35.09</v>
-      </c>
-      <c r="I44" s="12">
+      <c r="H44" s="6">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="I44" s="11">
         <v>0.5</v>
       </c>
-      <c r="J44" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
-      <c r="A45" s="6">
+    </row>
+    <row r="45" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="5">
         <v>185</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="6">
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="5">
         <v>3</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>845</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>2137</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="6">
         <v>39.54</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
-      <c r="A46" s="6">
+    </row>
+    <row r="46" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="5">
         <v>186</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="6">
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="5">
         <v>3</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>494</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>1314</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <v>37.6</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
-      <c r="A47" s="6">
+    </row>
+    <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="5">
         <v>187</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="6">
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="5">
         <v>3</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>650</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>966</v>
       </c>
-      <c r="H47" s="7">
-        <v>67.29</v>
+      <c r="H47" s="6">
+        <v>67.290000000000006</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J47" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
-      <c r="A48" s="6">
+    </row>
+    <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="5">
         <v>192</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="6">
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="5">
         <v>3</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>988</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>2184</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="6">
         <v>45.24</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J48" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
-      <c r="A49" s="6">
+    </row>
+    <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="5">
         <v>193</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="6">
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="5">
         <v>3</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>214</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="5">
         <v>1059</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="6">
         <v>20.21</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" t="s">
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
-      <c r="A50" s="6">
+    <row r="50" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="5">
         <v>260</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="6">
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="5">
         <v>3</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>425</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>2084</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <v>20.39</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J50" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
-      <c r="A51" s="6">
+    </row>
+    <row r="51" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="5">
         <v>261</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="6">
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="5">
         <v>3</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" t="s">
         <v>87</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>595</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>1973</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="6">
         <v>30.16</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
-      <c r="A52" s="6">
+    </row>
+    <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="5">
         <v>290</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="6">
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="5">
         <v>3</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>866</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>4335</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="6">
         <v>19.98</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
-      <c r="A53" s="6">
+    </row>
+    <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="5">
         <v>291</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="6">
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="5">
         <v>3</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" t="s">
         <v>90</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>508</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="5">
         <v>2589</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="6">
         <v>19.62</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="5" t="s">
+      <c r="J53" t="s">
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
-      <c r="A54" s="6">
+    <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="5">
         <v>295</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="6">
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="5">
         <v>3</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>442</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <v>918</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="6">
         <v>48.15</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" t="s">
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
-      <c r="A55" s="6">
+    <row r="55" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="5">
         <v>116</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>3</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="8">
         <v>403</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="8">
         <v>676</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="9">
         <v>59.62</v>
       </c>
-      <c r="I55" s="11"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
-      <c r="A56" s="6">
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="5">
         <v>156</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>3</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="8">
         <v>180</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="8">
         <v>396</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="9">
         <v>45.45</v>
       </c>
-      <c r="I56" s="11"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
-      <c r="A57" s="6">
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="5">
         <v>194</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>3</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="8">
         <v>391</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="8">
         <v>888</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="9">
         <v>44.03</v>
       </c>
-      <c r="I57" s="11"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
-      <c r="A58" s="6">
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="5">
         <v>217</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="8">
         <v>3</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="9">
+      <c r="E58" s="7"/>
+      <c r="F58" s="8">
         <v>358</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="8">
         <v>1097</v>
       </c>
-      <c r="H58" s="10">
-        <v>32.63</v>
-      </c>
-      <c r="I58" s="11"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
-      <c r="A59" s="6">
+      <c r="H58" s="9">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="5">
         <v>218</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>3</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="9">
+      <c r="E59" s="7"/>
+      <c r="F59" s="8">
         <v>362</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="8">
         <v>1970</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="9">
         <v>18.38</v>
       </c>
-      <c r="I59" s="11"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
-      <c r="A60" s="6">
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="5">
         <v>228</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="8">
         <v>3</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="8">
         <v>43</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="8">
         <v>691</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="9">
         <v>6.22</v>
       </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
-      <c r="A61" s="6">
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="5">
         <v>485</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>3</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="8">
         <v>310</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="8">
         <v>1120</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="9">
         <v>27.68</v>
       </c>
-      <c r="I61" s="11"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
-      <c r="A62" s="6">
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="5">
         <v>486</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>3</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="8">
         <v>442</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="8">
         <v>1400</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="9">
         <v>31.57</v>
       </c>
-      <c r="I62" s="11"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
-      <c r="A63" s="6">
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="5">
         <v>594</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>3</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="8">
         <v>319</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="8">
         <v>2356</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="9">
         <v>13.54</v>
       </c>
-      <c r="I63" s="11"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
-      <c r="A64" s="6">
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="5">
         <v>598</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>3</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="8">
         <v>215</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="8">
         <v>921</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="9">
         <v>23.34</v>
       </c>
-      <c r="I64" s="11"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
-      <c r="A65" s="6">
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="5">
         <v>87</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="6">
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="5">
         <v>4</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" t="s">
         <v>95</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="5">
         <v>207</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="5">
         <v>1850</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="6">
         <v>11.19</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J65" s="5" t="s">
+      <c r="J65" t="s">
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
-      <c r="A66" s="6">
+    <row r="66" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="5">
         <v>88</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="6">
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="5">
         <v>4</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" t="s">
         <v>95</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="5">
         <v>765</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="5">
         <v>1249</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="6">
         <v>61.25</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J66" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
-      <c r="A67" s="6">
+    </row>
+    <row r="67" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="5">
         <v>90</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="6">
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="5">
         <v>4</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" t="s">
         <v>112</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="5">
         <v>978</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="5">
         <v>5586</v>
       </c>
-      <c r="H67" s="7">
-        <v>17.51</v>
+      <c r="H67" s="6">
+        <v>17.510000000000002</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J67" s="5" t="s">
+      <c r="J67" t="s">
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
-      <c r="A68" s="6">
+    <row r="68" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="5">
         <v>111</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="6">
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="5">
         <v>4</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" t="s">
         <v>71</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="5">
         <v>432</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="5">
         <v>1733</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="6">
         <v>24.93</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J68" s="5" t="s">
+      <c r="J68" t="s">
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
-      <c r="A69" s="6">
+    <row r="69" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="5">
         <v>128</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="6">
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="5">
         <v>4</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" t="s">
         <v>117</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="5">
         <v>452</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69" s="5">
         <v>996</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="6">
         <v>45.38</v>
       </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
-      <c r="A70" s="6">
+    </row>
+    <row r="70" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="5">
         <v>130</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="6">
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="5">
         <v>4</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" t="s">
         <v>119</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="5">
         <v>330</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="5">
         <v>638</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="6">
         <v>51.72</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J70" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
-      <c r="A71" s="6">
+    </row>
+    <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="5">
         <v>131</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" t="s">
         <v>120</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="6">
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="5">
         <v>4</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="5">
         <v>418</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="5">
         <v>1165</v>
       </c>
-      <c r="H71" s="7">
-        <v>35.88</v>
-      </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
-      <c r="A72" s="6">
+      <c r="H71" s="6">
+        <v>35.880000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="5">
         <v>132</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="6">
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="5">
         <v>4</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" t="s">
         <v>122</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="5">
         <v>811</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72" s="5">
         <v>3726</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="6">
         <v>21.77</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
-      <c r="A73" s="6">
+    </row>
+    <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="5">
         <v>133</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="6">
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="5">
         <v>4</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" t="s">
         <v>124</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="5">
         <v>203</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73" s="5">
         <v>556</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="6">
         <v>36.51</v>
       </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
-      <c r="A74" s="6">
+    </row>
+    <row r="74" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="5">
         <v>134</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="6">
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="5">
         <v>4</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" t="s">
         <v>30</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="5">
         <v>364</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74" s="5">
         <v>1268</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="6">
         <v>28.71</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I74" s="11">
         <v>0.2</v>
       </c>
-      <c r="J74" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="6">
+    </row>
+    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="5">
         <v>144</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" t="s">
         <v>126</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="6">
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="5">
         <v>4</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" t="s">
         <v>127</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="5">
         <v>620</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75" s="5">
         <v>4351</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="6">
         <v>14.25</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J75" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="6">
+    </row>
+    <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="5">
         <v>150</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="6">
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="5">
         <v>4</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="5">
         <v>627</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="5">
         <v>2192</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="6">
         <v>28.6</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J76" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="6">
+    </row>
+    <row r="77" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="5">
         <v>151</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="6">
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="5">
         <v>4</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" t="s">
         <v>130</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="5">
         <v>428</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="5">
         <v>953</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="6">
         <v>44.91</v>
       </c>
-      <c r="I77" s="12">
+      <c r="I77" s="11">
         <v>0.7</v>
       </c>
-      <c r="J77" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="6">
+    </row>
+    <row r="78" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="5">
         <v>159</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="6">
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="5">
         <v>4</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" t="s">
         <v>51</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="5">
         <v>416</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G78" s="5">
         <v>2945</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="6">
         <v>14.13</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J78" s="5" t="s">
+      <c r="J78" t="s">
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="6">
+    <row r="79" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="5">
         <v>177</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" t="s">
         <v>133</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="6">
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="5">
         <v>4</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" t="s">
         <v>134</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="5">
         <v>393</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="5">
         <v>1074</v>
       </c>
-      <c r="H79" s="7">
-        <v>36.59</v>
+      <c r="H79" s="6">
+        <v>36.590000000000003</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J79" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="6">
+    </row>
+    <row r="80" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="5">
         <v>180</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="6">
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="5">
         <v>4</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" t="s">
         <v>136</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="5">
         <v>852</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G80" s="5">
         <v>3134</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="6">
         <v>27.19</v>
       </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="6">
+    </row>
+    <row r="81" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="5">
         <v>190</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="6">
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="5">
         <v>4</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" t="s">
         <v>112</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="5">
         <v>532</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G81" s="5">
         <v>1533</v>
       </c>
-      <c r="H81" s="7">
-        <v>34.7</v>
+      <c r="H81" s="6">
+        <v>34.700000000000003</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J81" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="6">
+    </row>
+    <row r="82" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="5">
         <v>191</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="6">
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="5">
         <v>4</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" t="s">
         <v>139</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="5">
         <v>283</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G82" s="5">
         <v>668</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82" s="6">
         <v>42.37</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J82" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="6">
+    </row>
+    <row r="83" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="5">
         <v>239</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="6">
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="5">
         <v>4</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="6">
+      <c r="F83" s="5">
         <v>103</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G83" s="5">
         <v>190</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="6">
         <v>54.21</v>
       </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="6">
+    </row>
+    <row r="84" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="5">
         <v>296</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="6">
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="5">
         <v>4</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="6">
+      <c r="F84" s="5">
         <v>686</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G84" s="5">
         <v>2433</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="6">
         <v>28.2</v>
       </c>
-      <c r="I84" s="4"/>
-      <c r="J84" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="6">
+    </row>
+    <row r="85" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="5">
         <v>157</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="8">
         <v>4</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="9">
+      <c r="E85" s="7"/>
+      <c r="F85" s="8">
         <v>209</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="8">
         <v>448</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H85" s="9">
         <v>46.65</v>
       </c>
-      <c r="I85" s="11"/>
-      <c r="J85" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="6">
+      <c r="I85" s="10"/>
+    </row>
+    <row r="86" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="5">
         <v>195</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="8">
         <v>4</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F86" s="8">
         <v>497</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="8">
         <v>2822</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="9">
         <v>17.61</v>
       </c>
-      <c r="I86" s="11"/>
-      <c r="J86" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="6">
+      <c r="I86" s="10"/>
+    </row>
+    <row r="87" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="5">
         <v>241</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="8">
         <v>4</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="9">
+      <c r="E87" s="7"/>
+      <c r="F87" s="8">
         <v>20</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="8">
         <v>59</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H87" s="9">
         <v>33.9</v>
       </c>
-      <c r="I87" s="11"/>
-      <c r="J87" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="6">
+      <c r="I87" s="10"/>
+    </row>
+    <row r="88" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="5">
         <v>527</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="8">
         <v>4</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="8">
         <v>97</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="8">
         <v>316</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H88" s="9">
         <v>30.7</v>
       </c>
-      <c r="I88" s="11"/>
-      <c r="J88" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="6">
+      <c r="I88" s="10"/>
+    </row>
+    <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="5">
         <v>595</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="8">
         <v>4</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="8">
         <v>320</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G89" s="8">
         <v>928</v>
       </c>
-      <c r="H89" s="10">
-        <v>34.48</v>
-      </c>
-      <c r="I89" s="11"/>
-      <c r="J89" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="6">
+      <c r="H89" s="9">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="I89" s="10"/>
+    </row>
+    <row r="90" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="5">
         <v>596</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="8">
         <v>4</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="8">
         <v>167</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="8">
         <v>1334</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H90" s="9">
         <v>12.52</v>
       </c>
-      <c r="I90" s="11"/>
-      <c r="J90" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="6">
+      <c r="I90" s="10"/>
+    </row>
+    <row r="91" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="5">
         <v>91</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" t="s">
         <v>149</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="6">
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="5">
         <v>5</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" t="s">
         <v>150</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="5">
         <v>648</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="5">
         <v>2561</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H91" s="6">
         <v>25.3</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J91" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="6">
+    </row>
+    <row r="92" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="5">
         <v>119</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" t="s">
         <v>151</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="6">
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="5">
         <v>5</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" t="s">
         <v>152</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="5">
         <v>1307</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G92" s="5">
         <v>5818</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92" s="6">
         <v>22.46</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J92" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="6">
+    </row>
+    <row r="93" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="5">
         <v>120</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" t="s">
         <v>153</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="6">
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="5">
         <v>5</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" t="s">
         <v>154</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="5">
         <v>911</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G93" s="5">
         <v>2914</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="6">
         <v>31.26</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J93" s="5" t="s">
+      <c r="J93" t="s">
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
-      <c r="A94" s="6">
+    <row r="94" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="5">
         <v>123</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" t="s">
         <v>156</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="6">
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="5">
         <v>5</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" t="s">
         <v>154</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="5">
         <v>1332</v>
       </c>
-      <c r="G94" s="6">
+      <c r="G94" s="5">
         <v>3401</v>
       </c>
-      <c r="H94" s="7">
-        <v>39.16</v>
+      <c r="H94" s="6">
+        <v>39.159999999999997</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J94" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
-      <c r="A95" s="6">
+    </row>
+    <row r="95" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="5">
         <v>129</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" t="s">
         <v>157</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="6">
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="5">
         <v>5</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" t="s">
         <v>98</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="5">
         <v>221</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G95" s="5">
         <v>686</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="6">
         <v>32.22</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J95" s="5" t="s">
+      <c r="J95" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
-      <c r="A96" s="6">
+    <row r="96" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="5">
         <v>135</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" t="s">
         <v>159</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="6">
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="5">
         <v>5</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" t="s">
         <v>160</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="5">
         <v>590</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G96" s="5">
         <v>4418</v>
       </c>
-      <c r="H96" s="7">
+      <c r="H96" s="6">
         <v>13.35</v>
       </c>
-      <c r="I96" s="12">
+      <c r="I96" s="11">
         <v>0.3</v>
       </c>
-      <c r="J96" s="5" t="s">
+      <c r="J96" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
-      <c r="A97" s="6">
+    <row r="97" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="5">
         <v>152</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="6">
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="5">
         <v>5</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" t="s">
         <v>98</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="5">
         <v>432</v>
       </c>
-      <c r="G97" s="6">
+      <c r="G97" s="5">
         <v>1516</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H97" s="6">
         <v>28.5</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J97" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
-      <c r="A98" s="6">
+    </row>
+    <row r="98" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="5">
         <v>153</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="6">
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="5">
         <v>5</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" t="s">
         <v>163</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="5">
         <v>280</v>
       </c>
-      <c r="G98" s="6">
+      <c r="G98" s="5">
         <v>1020</v>
       </c>
-      <c r="H98" s="7">
+      <c r="H98" s="6">
         <v>27.45</v>
       </c>
-      <c r="I98" s="4"/>
-      <c r="J98" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
-      <c r="A99" s="6">
+    </row>
+    <row r="99" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="5">
         <v>112</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="8">
         <v>5</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F99" s="8">
         <v>463</v>
       </c>
-      <c r="G99" s="9">
+      <c r="G99" s="8">
         <v>3175</v>
       </c>
-      <c r="H99" s="10">
+      <c r="H99" s="9">
         <v>14.58</v>
       </c>
-      <c r="I99" s="11"/>
-      <c r="J99" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
-      <c r="A100" s="6">
+      <c r="I99" s="10"/>
+    </row>
+    <row r="100" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="5">
         <v>158</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="8">
         <v>5</v>
       </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="9">
+      <c r="E100" s="7"/>
+      <c r="F100" s="8">
         <v>156</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="8">
         <v>280</v>
       </c>
-      <c r="H100" s="10">
+      <c r="H100" s="9">
         <v>55.71</v>
       </c>
-      <c r="I100" s="11"/>
-      <c r="J100" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
-      <c r="A101" s="6">
+      <c r="I100" s="10"/>
+    </row>
+    <row r="101" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="5">
         <v>196</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="8">
         <v>5</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F101" s="9">
+      <c r="F101" s="8">
         <v>167</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="8">
         <v>669</v>
       </c>
-      <c r="H101" s="10">
+      <c r="H101" s="9">
         <v>24.96</v>
       </c>
-      <c r="I101" s="11"/>
-      <c r="J101" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
-      <c r="A102" s="6">
+      <c r="I101" s="10"/>
+    </row>
+    <row r="102" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="5">
         <v>201</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="8">
         <v>5</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F102" s="8">
         <v>251</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G102" s="8">
         <v>1830</v>
       </c>
-      <c r="H102" s="10">
+      <c r="H102" s="9">
         <v>13.72</v>
       </c>
-      <c r="I102" s="11"/>
-      <c r="J102" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
-      <c r="A103" s="6">
+      <c r="I102" s="10"/>
+    </row>
+    <row r="103" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="5">
         <v>113</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" t="s">
         <v>169</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="6">
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="5">
         <v>6</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" t="s">
         <v>170</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="5">
         <v>1060</v>
       </c>
-      <c r="G103" s="6">
+      <c r="G103" s="5">
         <v>2227</v>
       </c>
-      <c r="H103" s="7">
+      <c r="H103" s="6">
         <v>47.6</v>
       </c>
-      <c r="I103" s="4"/>
-      <c r="J103" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
-      <c r="A104" s="6">
+      <c r="I103" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="5">
         <v>117</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" t="s">
         <v>171</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="6">
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="5">
         <v>6</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" t="s">
         <v>170</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="5">
         <v>913</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G104" s="5">
         <v>3095</v>
       </c>
-      <c r="H104" s="7">
+      <c r="H104" s="6">
         <v>29.5</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J104" s="5" t="s">
+      <c r="J104" t="s">
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
-      <c r="A105" s="6">
+    <row r="105" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="5">
         <v>118</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" t="s">
         <v>173</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="6">
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="5">
         <v>6</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" t="s">
         <v>174</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="5">
         <v>213</v>
       </c>
-      <c r="G105" s="6">
+      <c r="G105" s="5">
         <v>898</v>
       </c>
-      <c r="H105" s="7">
+      <c r="H105" s="6">
         <v>23.72</v>
       </c>
-      <c r="I105" s="4"/>
-      <c r="J105" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
-      <c r="A106" s="6">
+    </row>
+    <row r="106" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="5">
         <v>122</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" t="s">
         <v>175</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="6">
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="5">
         <v>6</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" t="s">
         <v>170</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="5">
         <v>1160</v>
       </c>
-      <c r="G106" s="6">
+      <c r="G106" s="5">
         <v>3371</v>
       </c>
-      <c r="H106" s="7">
-        <v>34.41</v>
-      </c>
-      <c r="I106" s="4"/>
-      <c r="J106" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
-      <c r="A107" s="6">
+      <c r="H106" s="6">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="5">
         <v>124</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" t="s">
         <v>176</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="6">
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="5">
         <v>6</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" t="s">
         <v>170</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F107" s="5">
         <v>1083</v>
       </c>
-      <c r="G107" s="6">
+      <c r="G107" s="5">
         <v>2776</v>
       </c>
-      <c r="H107" s="7">
+      <c r="H107" s="6">
         <v>39.01</v>
       </c>
-      <c r="I107" s="4"/>
-      <c r="J107" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
-      <c r="A108" s="6">
+    </row>
+    <row r="108" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="5">
         <v>125</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" t="s">
         <v>177</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="6">
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="5">
         <v>6</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" t="s">
         <v>178</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F108" s="5">
         <v>383</v>
       </c>
-      <c r="G108" s="6">
+      <c r="G108" s="5">
         <v>804</v>
       </c>
-      <c r="H108" s="7">
+      <c r="H108" s="6">
         <v>47.64</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J108" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
-      <c r="A109" s="6">
+    </row>
+    <row r="109" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="5">
         <v>127</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" t="s">
         <v>179</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="6">
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="5">
         <v>6</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" t="s">
         <v>180</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F109" s="5">
         <v>75</v>
       </c>
-      <c r="G109" s="6">
+      <c r="G109" s="5">
         <v>1106</v>
       </c>
-      <c r="H109" s="7">
+      <c r="H109" s="6">
         <v>6.78</v>
       </c>
-      <c r="I109" s="4"/>
-      <c r="J109" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
-      <c r="A110" s="6">
+    </row>
+    <row r="110" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="5">
         <v>142</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" t="s">
         <v>181</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="6">
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="5">
         <v>6</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" t="s">
         <v>182</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F110" s="5">
         <v>347</v>
       </c>
-      <c r="G110" s="6">
+      <c r="G110" s="5">
         <v>1143</v>
       </c>
-      <c r="H110" s="7">
+      <c r="H110" s="6">
         <v>30.36</v>
       </c>
-      <c r="I110" s="4"/>
-      <c r="J110" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
-      <c r="A111" s="6">
+    </row>
+    <row r="111" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="5">
         <v>143</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" t="s">
         <v>183</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="6">
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="5">
         <v>6</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" t="s">
         <v>178</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="5">
         <v>357</v>
       </c>
-      <c r="G111" s="6">
+      <c r="G111" s="5">
         <v>1001</v>
       </c>
-      <c r="H111" s="7">
-        <v>35.66</v>
-      </c>
-      <c r="I111" s="4"/>
-      <c r="J111" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
-      <c r="A112" s="6">
+      <c r="H111" s="6">
+        <v>35.659999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="5">
         <v>109</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="8">
         <v>6</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F112" s="9">
+      <c r="F112" s="8">
         <v>447</v>
       </c>
-      <c r="G112" s="9">
+      <c r="G112" s="8">
         <v>1289</v>
       </c>
-      <c r="H112" s="10">
+      <c r="H112" s="9">
         <v>34.68</v>
       </c>
-      <c r="I112" s="11"/>
-      <c r="J112" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
-      <c r="A113" s="6">
+      <c r="I112" s="10"/>
+    </row>
+    <row r="113" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="5">
         <v>202</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D113" s="8">
         <v>6</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F113" s="9">
+      <c r="F113" s="8">
         <v>196</v>
       </c>
-      <c r="G113" s="9">
+      <c r="G113" s="8">
         <v>1068</v>
       </c>
-      <c r="H113" s="10">
-        <v>18.35</v>
-      </c>
-      <c r="I113" s="11"/>
-      <c r="J113" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
-      <c r="A114" s="6">
+      <c r="H113" s="9">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="I113" s="10"/>
+    </row>
+    <row r="114" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="5">
         <v>597</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="8">
         <v>6</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F114" s="9">
+      <c r="F114" s="8">
         <v>243</v>
       </c>
-      <c r="G114" s="9">
+      <c r="G114" s="8">
         <v>1093</v>
       </c>
-      <c r="H114" s="10">
+      <c r="H114" s="9">
         <v>22.23</v>
       </c>
-      <c r="I114" s="11"/>
-      <c r="J114" s="5"/>
+      <c r="I114" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4328,8 +4212,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/题单.xlsx
+++ b/题单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\04ComputerScience\C_Program_learning\yoj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502DE74E-C837-4B5C-BDAA-E54908069E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD653803-A10B-406F-ACF5-A1B8F4FB6134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 

--- a/题单.xlsx
+++ b/题单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\04ComputerScience\C_Program_learning\yoj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD653803-A10B-406F-ACF5-A1B8F4FB6134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9A0973-C95C-4036-A2CE-4809E89EB89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="189">
   <si>
     <t>题号</t>
   </si>
@@ -1029,7 +1028,7 @@
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I106" sqref="I106"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4008,6 +4007,9 @@
       </c>
       <c r="H107" s="6">
         <v>39.01</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">

--- a/题单.xlsx
+++ b/题单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\04ComputerScience\C_Program_learning\yoj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9A0973-C95C-4036-A2CE-4809E89EB89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E02583F-B20A-426C-83FF-275D7FFA5A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="189">
   <si>
     <t>题号</t>
   </si>
@@ -1027,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4091,6 +4091,9 @@
       </c>
       <c r="H110" s="6">
         <v>30.36</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">

--- a/题单.xlsx
+++ b/题单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\04ComputerScience\C_Program_learning\yoj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E02583F-B20A-426C-83FF-275D7FFA5A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E645CE-EA81-4581-90AE-AF67272D7377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="192">
   <si>
     <t>题号</t>
   </si>
@@ -588,6 +588,18 @@
   </si>
   <si>
     <t>递归搜索</t>
+  </si>
+  <si>
+    <t>不可见：33</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共113</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可见80</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1025,10 +1037,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K109" sqref="K109"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" workbookViewId="0">
+      <selection activeCell="L113" sqref="L113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1904,6 +1916,9 @@
       <c r="H32" s="6">
         <v>41.36</v>
       </c>
+      <c r="I32" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
@@ -3706,7 +3721,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="5">
         <v>152</v>
       </c>
@@ -3735,7 +3750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="5">
         <v>153</v>
       </c>
@@ -3761,7 +3776,7 @@
         <v>27.45</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="5">
         <v>112</v>
       </c>
@@ -3788,7 +3803,7 @@
       </c>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="5">
         <v>158</v>
       </c>
@@ -3813,7 +3828,7 @@
       </c>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="5">
         <v>196</v>
       </c>
@@ -3840,7 +3855,7 @@
       </c>
       <c r="I101" s="10"/>
     </row>
-    <row r="102" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="5">
         <v>201</v>
       </c>
@@ -3867,7 +3882,7 @@
       </c>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="5">
         <v>113</v>
       </c>
@@ -3896,7 +3911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="5">
         <v>117</v>
       </c>
@@ -3928,7 +3943,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="5">
         <v>118</v>
       </c>
@@ -3954,7 +3969,7 @@
         <v>23.72</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="5">
         <v>122</v>
       </c>
@@ -3983,7 +3998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="5">
         <v>124</v>
       </c>
@@ -4012,7 +4027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="5">
         <v>125</v>
       </c>
@@ -4041,7 +4056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="5">
         <v>127</v>
       </c>
@@ -4067,7 +4082,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="5">
         <v>142</v>
       </c>
@@ -4095,8 +4110,11 @@
       <c r="I110" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L110" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="5">
         <v>143</v>
       </c>
@@ -4121,8 +4139,14 @@
       <c r="H111" s="6">
         <v>35.659999999999997</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L111" t="s">
+        <v>189</v>
+      </c>
+      <c r="M111" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="5">
         <v>109</v>
       </c>
